--- a/App_View/wwwroot/ImportErrors.xlsx
+++ b/App_View/wwwroot/ImportErrors.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Tên SP*</t>
   </si>
@@ -80,13 +80,13 @@
     <t>Mô tả lỗi</t>
   </si>
   <si>
-    <t>IPHONE 11 PRO</t>
-  </si>
-  <si>
-    <t>APPLE</t>
-  </si>
-  <si>
-    <t>A13 Bionic</t>
+    <t>iPhone 11 Pro</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apple A13 Bionic 6 nhân</t>
   </si>
   <si>
     <t>Lightning</t>
@@ -95,7 +95,7 @@
     <t>OLED</t>
   </si>
   <si>
-    <t>Li-Ion</t>
+    <t xml:space="preserve">Li-Ion        </t>
   </si>
   <si>
     <t>SD</t>
@@ -104,7 +104,7 @@
     <t>NANO</t>
   </si>
   <si>
-    <t>12 MP</t>
+    <t>12PX</t>
   </si>
   <si>
     <t>BLACK</t>
@@ -113,7 +113,7 @@
     <t>4GB</t>
   </si>
   <si>
-    <t>64GB</t>
+    <t>8GB</t>
   </si>
   <si>
     <t>5000000</t>
@@ -131,7 +131,10 @@
     <t>&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>08ff3bd6-1868-4135-aa00-9d0f78d1bd81iphone-11-den-1-1-1-org-2079.jpg</t>
+    <t>f98ffb22-58bf-4b40-b875-6006e88cd067286885732.jpeg</t>
+  </si>
+  <si>
+    <t>Sản phẩm đã tồn tại</t>
   </si>
 </sst>
 </file>
@@ -315,13 +318,16 @@
         <v>1</v>
       </c>
       <c r="S2" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" s="0" t="s">
         <v>38</v>
       </c>
       <c r="U2" s="0" t="s">
         <v>39</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
